--- a/public/cohort/fileExcel/xlsxUIT/OPEN/FA_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/FA_OPEN.xlsx
@@ -888,6 +888,9 @@
     <t>proefwerk over hoofdstuk 1: mix van kennis en vaardigheden</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>A, B, D</t>
   </si>
   <si>
@@ -952,9 +955,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t xml:space="preserve">Bij de hoofdstuktoetsen mag bij het luisterdeel en het kennisdeel geen hulpmiddelen gebruikt worden. Bij het lees- en schrijfdeel mag mijnwoordenboek.nl en vandale.nl. en de référence horend bij de methode gebruikt worden. Het schrijfdeel wordt geschreven in word. </t>
@@ -2456,10 +2456,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2537,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2554,10 +2554,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>191</v>
@@ -2635,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -2644,7 +2644,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L8" s="45">
         <v>30</v>
@@ -2654,10 +2654,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2736,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2753,10 +2753,10 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2821,11 +2821,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633298611</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2">
         <v>665</v>
@@ -2835,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -2844,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" s="45">
         <v>5</v>
@@ -2854,10 +2854,10 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2936,7 +2936,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -2953,10 +2953,10 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3083,14 +3083,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4824,7 +4824,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4837,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4920,7 +4920,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>20</v>
@@ -4933,7 +4933,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4942,7 +4942,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L8" s="45">
         <v>30</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -5018,7 +5018,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5032,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -5115,11 +5115,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633298611</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2">
         <v>102</v>
@@ -5129,7 +5129,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -5138,7 +5138,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" s="45">
         <v>5</v>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5214,7 +5214,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5228,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5311,7 +5311,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5531,7 +5531,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>21</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7433,11 +7433,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633298611</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7829,7 +7829,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -9408,10 +9408,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
         <v>103</v>
@@ -9574,7 +9574,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>192</v>
@@ -9606,10 +9606,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -9674,7 +9674,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
         <v>103</v>
@@ -9773,11 +9773,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633298611</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2">
         <v>682</v>
@@ -9796,7 +9796,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" s="45">
         <v>5</v>
@@ -9806,10 +9806,10 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -9874,7 +9874,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>103</v>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -10035,7 +10035,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11778,7 +11778,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11808,7 +11808,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11874,7 +11874,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>22</v>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11972,7 +11972,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -12003,7 +12003,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -12069,11 +12069,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633298611</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2">
         <v>114</v>
@@ -12092,7 +12092,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" s="45">
         <v>5</v>
@@ -12102,7 +12102,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12168,7 +12168,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12265,7 +12265,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12288,7 +12288,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12359,7 +12359,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>110</v>
@@ -12574,10 +12574,10 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12673,7 +12673,7 @@
         <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -12762,10 +12762,10 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -12859,7 +12859,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -12948,10 +12948,10 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -14130,7 +14130,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14218,7 +14218,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>23</v>
@@ -14306,7 +14306,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14395,11 +14395,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633298611</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14484,7 +14484,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14573,7 +14573,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14596,7 +14596,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14635,7 +14635,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14665,7 +14665,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14788,7 +14788,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -14975,7 +14975,7 @@
         <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -15064,7 +15064,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -15159,7 +15159,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15248,7 +15248,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -15878,7 +15878,7 @@
         <v>8</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
@@ -16490,7 +16490,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16578,7 +16578,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>24</v>
@@ -16666,7 +16666,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16755,11 +16755,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633298611</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16844,7 +16844,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16933,7 +16933,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16956,7 +16956,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16995,7 +16995,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -17025,7 +17025,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -18180,7 +18180,7 @@
         <v>8</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R34" s="7">
         <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
